--- a/plots/countries/plot data/Hungary.xlsx
+++ b/plots/countries/plot data/Hungary.xlsx
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>8.93583444778407</v>
+        <v>8.93589398302547</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>11.3865820714708</v>
+        <v>11.3865722864525</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.30028944738394</v>
+        <v>-3.29299943081022</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>4.22618332680841</v>
+        <v>4.0793751234493</v>
       </c>
     </row>
     <row r="11">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>7.84184221794085</v>
+        <v>7.84194327435943</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>7.85138381433041</v>
+        <v>7.85137743569677</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.49476466771617</v>
+        <v>-2.4579630043353</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>4.32119556793474</v>
+        <v>4.17671894899256</v>
       </c>
     </row>
     <row r="20">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>7.56316409850061</v>
+        <v>7.56323408887768</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>6.22188711009379</v>
+        <v>6.2218945131194</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.01905447826168</v>
+        <v>-2.98612612314036</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>4.37754881714952</v>
+        <v>4.23639192833702</v>
       </c>
     </row>
     <row r="29">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>7.55884380009914</v>
+        <v>7.55892572020637</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>7.01759224966272</v>
+        <v>7.01759782581176</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-5.63773797596963</v>
+        <v>-5.62568166232671</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>4.44241185698007</v>
+        <v>4.30313403224587</v>
       </c>
     </row>
     <row r="38">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>7.36528804544441</v>
+        <v>7.36536707044035</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>8.43897225131463</v>
+        <v>8.43901251190351</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-6.25540645161002</v>
+        <v>-6.24268206445418</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>4.48893387910389</v>
+        <v>4.35104756177406</v>
       </c>
     </row>
     <row r="47">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>7.53186807509073</v>
+        <v>7.53191987698759</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>8.07656425138777</v>
+        <v>8.07639604185711</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-6.27276907699623</v>
+        <v>-6.2596343693877</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>4.54266336068596</v>
+        <v>4.40729344272222</v>
       </c>
     </row>
     <row r="56">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>7.51658188692281</v>
+        <v>7.51666298508103</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>8.37190752731203</v>
+        <v>8.37197418868164</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.62728617631781</v>
+        <v>-2.60842232032592</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>4.56174756449662</v>
+        <v>4.42940190216363</v>
       </c>
     </row>
     <row r="65">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>7.92091641259243</v>
+        <v>7.92100559762251</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>7.74426369362381</v>
+        <v>7.7381938016967</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.08079066657937</v>
+        <v>-3.06675997588293</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>4.61934495383312</v>
+        <v>4.49144150344605</v>
       </c>
     </row>
     <row r="74">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>8.7442303246888</v>
+        <v>8.74429869837138</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>7.33278921924192</v>
+        <v>7.33039590015177</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-4.17902677933095</v>
+        <v>-4.15552466584671</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>4.67193006019719</v>
+        <v>4.55367494245003</v>
       </c>
     </row>
     <row r="83">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>9.23304716592679</v>
+        <v>9.23314443195877</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>7.21809261127779</v>
+        <v>7.19743988799186</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.97611011482885</v>
+        <v>-1.92993773638853</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>4.74364940949388</v>
+        <v>4.63222807135447</v>
       </c>
     </row>
     <row r="92">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>9.14154529925371</v>
+        <v>9.14159980193766</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>7.98587084443306</v>
+        <v>7.97986670999489</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.0872832228174</v>
+        <v>-1.05068793559868</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>4.81941257738362</v>
+        <v>4.72350088632632</v>
       </c>
     </row>
     <row r="101">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>9.61145840673217</v>
+        <v>9.61150252893889</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>7.88600729990048</v>
+        <v>7.88915959659896</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-2.74271421091472</v>
+        <v>-2.7005175316854</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>4.8303898989563</v>
+        <v>4.74306250078355</v>
       </c>
     </row>
     <row r="110">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>10.2349301740837</v>
+        <v>10.2349915916587</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>7.36551359004449</v>
+        <v>7.3754232658176</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-2.05140624892383</v>
+        <v>-2.00186584317995</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>4.92475089046721</v>
+        <v>4.86116014533445</v>
       </c>
     </row>
     <row r="119">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>10.7255608026864</v>
+        <v>10.7257060829729</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>7.52491252553078</v>
+        <v>7.5397985682169</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-4.42418765259714</v>
+        <v>-4.38186871835476</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>4.97365365535664</v>
+        <v>4.96035529879658</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>6.28605852433967</v>
+        <v>6.28590715176647</v>
       </c>
     </row>
     <row r="129">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>11.1573987886453</v>
+        <v>11.1575977513117</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>8.18705513185653</v>
+        <v>8.20953322366054</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-3.46243358119225</v>
+        <v>-3.42546596196778</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>4.93006061675856</v>
+        <v>4.93815319086824</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>5.98504068032184</v>
+        <v>5.98489706928852</v>
       </c>
     </row>
     <row r="138">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>3.02767844857448</v>
+        <v>3.02861832457448</v>
       </c>
     </row>
     <row r="140">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>12.087133702871</v>
+        <v>12.0874289223866</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>8.87380132447842</v>
+        <v>8.90568148404534</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-5.99224422752391</v>
+        <v>-5.95329679234652</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>4.88149269586281</v>
+        <v>4.96536624564556</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>5.92885716439751</v>
+        <v>5.92867563239237</v>
       </c>
     </row>
     <row r="147">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>2.61375203854169</v>
+        <v>2.61450619054169</v>
       </c>
     </row>
     <row r="149">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>12.854632603764</v>
+        <v>12.8551028813224</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>8.50939005938864</v>
+        <v>8.55457735480765</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-4.07254505739474</v>
+        <v>-4.0263239304183</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>4.81663157264067</v>
+        <v>4.92114258628453</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>5.90875104037514</v>
+        <v>5.90839729185632</v>
       </c>
     </row>
     <row r="156">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>2.37448191534347</v>
+        <v>2.37487587534347</v>
       </c>
     </row>
     <row r="158">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>13.1441791587876</v>
+        <v>13.1447014064137</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>8.34801026472067</v>
+        <v>8.41644952651989</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-4.36450706138096</v>
+        <v>-4.31250395566443</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>4.79122393627869</v>
+        <v>4.91647947811376</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>5.91872137425903</v>
+        <v>5.9180279713426</v>
       </c>
     </row>
     <row r="165">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>2.34835758669466</v>
+        <v>2.34879094269466</v>
       </c>
     </row>
     <row r="167">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>13.1275818643096</v>
+        <v>13.1281791759926</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>7.25143652882571</v>
+        <v>7.33515115042502</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-6.06326113432578</v>
+        <v>-6.02191800846451</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>4.72238210352781</v>
+        <v>4.85159005454194</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>5.58811597739127</v>
+        <v>5.5870693287849</v>
       </c>
     </row>
     <row r="174">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>2.17551569380835</v>
+        <v>2.17580834980835</v>
       </c>
     </row>
     <row r="176">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>13.0429860032365</v>
+        <v>13.0436064960584</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>6.25227508230611</v>
+        <v>6.37122886073421</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-4.5980909487541</v>
+        <v>-4.54453081023829</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>4.73391954386209</v>
+        <v>4.85223639817806</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>5.51912846154429</v>
+        <v>5.51784397700663</v>
       </c>
     </row>
     <row r="183">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>2.19785393144982</v>
+        <v>2.19840594285348</v>
       </c>
     </row>
     <row r="185">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>11.7272584967209</v>
+        <v>11.7277968987669</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>6.43528867537318</v>
+        <v>6.57881137067582</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-4.79483864861891</v>
+        <v>-4.63608940073815</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>4.69383602610233</v>
+        <v>4.84764248603207</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>5.70173435823263</v>
+        <v>5.69980585341043</v>
       </c>
     </row>
     <row r="192">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>2.15090500286347</v>
+        <v>2.15141374304081</v>
       </c>
     </row>
     <row r="194">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>11.1036006285067</v>
+        <v>11.1040906540202</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>6.59405753822091</v>
+        <v>6.75797279181234</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-4.17176699458179</v>
+        <v>-4.12423879987149</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>4.50409539872088</v>
+        <v>4.65735620345867</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>5.75676537039818</v>
+        <v>5.75517260438154</v>
       </c>
     </row>
     <row r="201">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>2.06792073105647</v>
+        <v>2.06842314212141</v>
       </c>
     </row>
     <row r="203">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>10.7748733955966</v>
+        <v>10.7753233413274</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>6.29150840602636</v>
+        <v>6.48483189397068</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-4.74882855444324</v>
+        <v>-4.67353462530566</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>4.5349492574083</v>
+        <v>4.70446862655187</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>6.11318591163296</v>
+        <v>6.11016931769032</v>
       </c>
     </row>
     <row r="210">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>2.05875296998645</v>
+        <v>2.05935680186961</v>
       </c>
     </row>
     <row r="212">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>10.0506431895355</v>
+        <v>10.0509905559037</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>5.67449524531199</v>
+        <v>5.86872535068352</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-4.06124014545805</v>
+        <v>-4.02700195021562</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>4.32293303066979</v>
+        <v>4.49589374473145</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>6.33796597779788</v>
+        <v>6.33499969454567</v>
       </c>
     </row>
     <row r="219">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>2.00563610481972</v>
+        <v>2.00581730740794</v>
       </c>
     </row>
     <row r="221">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>11.2123376419862</v>
+        <v>11.2126920185175</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>6.42667473872596</v>
+        <v>6.58878981356052</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-5.08535530691509</v>
+        <v>-5.05355740936284</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>4.20721305597966</v>
+        <v>4.40548530379423</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>6.54994775860441</v>
+        <v>6.54705328647861</v>
       </c>
     </row>
     <row r="228">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>1.99075302912815</v>
+        <v>1.99153238949901</v>
       </c>
     </row>
     <row r="230">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>12.2323054074571</v>
+        <v>12.2325095545192</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>7.00766892220595</v>
+        <v>7.13242075512498</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-5.67507144636838</v>
+        <v>-5.65330194586628</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>4.07290412647184</v>
+        <v>4.28048545085916</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>6.8600393658946</v>
+        <v>6.85716483491571</v>
       </c>
     </row>
     <row r="237">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>1.98356696130023</v>
+        <v>1.98382362599197</v>
       </c>
     </row>
     <row r="239">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>12.2636123563873</v>
+        <v>12.2633360823459</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>6.54584686572944</v>
+        <v>6.73214419194353</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-4.54152372129795</v>
+        <v>-4.53412144479982</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>3.93578674744307</v>
+        <v>4.184799618648</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>6.86676152313933</v>
+        <v>6.86492283204267</v>
       </c>
     </row>
     <row r="246">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>2.02924219614342</v>
+        <v>2.02972636103039</v>
       </c>
     </row>
     <row r="248">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>13.0623690848716</v>
+        <v>13.0617011780957</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>7.2301895817739</v>
+        <v>7.24779758279176</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-5.34379731658055</v>
+        <v>-5.31371906967672</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>3.95279965878276</v>
+        <v>4.19701641508012</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>6.9137807654172</v>
+        <v>6.91219630922246</v>
       </c>
     </row>
     <row r="255">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>2.04621766915918</v>
+        <v>2.04653827193043</v>
       </c>
     </row>
     <row r="257">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>13.8851033894099</v>
+        <v>13.8738058083553</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>7.46607110984581</v>
+        <v>7.48598668701412</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-4.7909493473311</v>
+        <v>-4.7838278009687</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>3.91914492134138</v>
+        <v>4.17518068301038</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>6.90263337672074</v>
+        <v>6.90129892709276</v>
       </c>
     </row>
     <row r="264">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>2.03026560066817</v>
+        <v>2.03057920299726</v>
       </c>
     </row>
     <row r="266">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>14.7170532061378</v>
+        <v>14.7083742030687</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>7.35335501366219</v>
+        <v>7.38427720922755</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-5.36859737062102</v>
+        <v>-5.36295234593334</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>3.90402111181842</v>
+        <v>4.16680894933528</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>7.09867421335368</v>
+        <v>7.09758817844656</v>
       </c>
     </row>
     <row r="273">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>1.93084118731123</v>
+        <v>1.93123454374646</v>
       </c>
     </row>
     <row r="275">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>12.5927533741744</v>
+        <v>12.5882869228615</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>7.36927785522049</v>
+        <v>7.38368250018827</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-7.09207134756835</v>
+        <v>-7.07600008969787</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>3.8749013278121</v>
+        <v>4.12121508523014</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>7.11549396973682</v>
+        <v>7.12020499191718</v>
       </c>
     </row>
     <row r="282">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>1.71906066504718</v>
+        <v>1.73598728654964</v>
       </c>
     </row>
     <row r="284">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>13.9501939557291</v>
+        <v>13.9431897889814</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>7.14436424977734</v>
+        <v>7.16138599863403</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-7.182063437677</v>
+        <v>-7.17124410603697</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>3.84297746342998</v>
+        <v>4.08341865625159</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>6.21305591289276</v>
+        <v>6.18638147192347</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>11.5793758526356</v>
+        <v>11.5892641136356</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>1.53660412206535</v>
+        <v>1.48666385285421</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>4.63668768684839</v>
+        <v>4.62983983784839</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>10.7437564740052</v>
+        <v>10.7367809160052</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>15.0754229642903</v>
+        <v>15.0640141273209</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>5.92705570819275</v>
+        <v>5.96538105422907</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-6.78673174751288</v>
+        <v>-6.77315097958542</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>3.82332763966627</v>
+        <v>4.06964851587677</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>5.99807707476848</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>10.1124871531815</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1.33763800668995</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>4.06939844622078</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>9.2547146790253</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>13.9693222356072</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>5.5428854740795</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-5.81083398707287</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>4.02807146551906</v>
       </c>
     </row>
   </sheetData>
